--- a/biology/Botanique/Jacques_Boissenot/Jacques_Boissenot.xlsx
+++ b/biology/Botanique/Jacques_Boissenot/Jacques_Boissenot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Boissenot, né le 10 septembre 1938 à Beyrouth (Liban) et mort le 2 septembre 2014 à Bordeaux[1], est un œnologue français, consultant pour plusieurs grands producteurs de Bordeaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Boissenot, né le 10 septembre 1938 à Beyrouth (Liban) et mort le 2 septembre 2014 à Bordeaux, est un œnologue français, consultant pour plusieurs grands producteurs de Bordeaux.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boissenot est né à Beyrouth, où son père, pilote de l'armée de l'air française, était posté. Ce n'est qu'en 1945 que la famille retourne vivre dans le Bordelais[1].
-Bien qu'il ne soit pas né dans le milieu du vin, sa famille possède deux hectares de vignobles dans le Médoc. Il étudie l'œnologie à l'Université de Bordeaux avec le grand œnologue Émile Peynaud et obtient son diplôme en 1963[2]. Il travaille d'abord pour un laboratoire d'œnologie à Bergerac, puis prend la tête d'un tout nouveau laboratoire syndical à Pauillac en 1964. En 1978, Peynaud lui propose de se joindre à lui. Il commence ainsi à travailler avec de grands domaines du Médoc[1].
-En 1990, Peynaud prend sa retraite et Jacques Boissenot poursuit son travail et celui d'Emile Peynaud à Lamarque, avec son fils Éric[1]. Pendant sa carrière, Jacques Boissenot a conseillé près de 200 domaines viticoles du Médoc, y compris les quatre premiers Grands crus classés (Mouton-Rothschild, Lafite-Rothschild, Latour, Margaux), et des deuxièmes crus comme Léoville Las Cases ou Cos d'Estournel[3],[4].
-Malgré son influence majeure, il a toujours cultivé une grande discrétion[5],[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boissenot est né à Beyrouth, où son père, pilote de l'armée de l'air française, était posté. Ce n'est qu'en 1945 que la famille retourne vivre dans le Bordelais.
+Bien qu'il ne soit pas né dans le milieu du vin, sa famille possède deux hectares de vignobles dans le Médoc. Il étudie l'œnologie à l'Université de Bordeaux avec le grand œnologue Émile Peynaud et obtient son diplôme en 1963. Il travaille d'abord pour un laboratoire d'œnologie à Bergerac, puis prend la tête d'un tout nouveau laboratoire syndical à Pauillac en 1964. En 1978, Peynaud lui propose de se joindre à lui. Il commence ainsi à travailler avec de grands domaines du Médoc.
+En 1990, Peynaud prend sa retraite et Jacques Boissenot poursuit son travail et celui d'Emile Peynaud à Lamarque, avec son fils Éric. Pendant sa carrière, Jacques Boissenot a conseillé près de 200 domaines viticoles du Médoc, y compris les quatre premiers Grands crus classés (Mouton-Rothschild, Lafite-Rothschild, Latour, Margaux), et des deuxièmes crus comme Léoville Las Cases ou Cos d'Estournel,.
+Malgré son influence majeure, il a toujours cultivé une grande discrétion,. 
 </t>
         </is>
       </c>
